--- a/SARS-CoV-2 Analysis - Miami Beach.xlsx
+++ b/SARS-CoV-2 Analysis - Miami Beach.xlsx
@@ -8,18 +8,56 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/work/Library/Mobile Documents/com~apple~CloudDocs/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A672FB8A-CC6D-584B-A78C-42B5628F2E4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592EFA01-E821-E448-A30E-1AF21C4E2C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{5746141D-E7E8-714E-A98D-1CE69C8603B7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{5746141D-E7E8-714E-A98D-1CE69C8603B7}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="5" r:id="rId1"/>
     <sheet name="number of infections" sheetId="3" r:id="rId2"/>
     <sheet name="infection percentage" sheetId="4" r:id="rId3"/>
     <sheet name="infection odds" sheetId="2" r:id="rId4"/>
-    <sheet name="data" sheetId="1" r:id="rId5"/>
+    <sheet name="morning update" sheetId="6" r:id="rId5"/>
+    <sheet name="data" sheetId="1" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">data!$A$2:$A$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">data!$G$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">data!$I$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">data!$I$2:$I$16</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">data!$J$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">data!$J$2:$J$16</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">data!$A$2:$A$16</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">data!$L$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">data!$L$2:$L$16</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">data!$M$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">data!$M$2:$M$16</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">data!$N$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">data!$G$2:$G$16</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">data!$N$2:$N$16</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">data!$A$2:$A$16</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">data!$L$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">data!$L$2:$L$16</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">data!$M$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">data!$M$2:$M$16</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">data!$N$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">data!$N$2:$N$16</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">data!$A$2:$A$16</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">data!$L$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">data!$I$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">data!$L$2:$L$16</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">data!$M$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">data!$M$2:$M$16</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">data!$N$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">data!$N$2:$N$16</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">data!$I$2:$I$16</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">data!$J$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">data!$J$2:$J$16</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">data!$A$2:$A$16</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">data!$G$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">data!$G$2:$G$16</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>date</t>
   </si>
@@ -86,12 +124,39 @@
   <si>
     <t>total population:</t>
   </si>
+  <si>
+    <t>COVID-19 cases</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 infections</t>
+  </si>
+  <si>
+    <t>estimated</t>
+  </si>
+  <si>
+    <t>confirmed</t>
+  </si>
+  <si>
+    <t>one in</t>
+  </si>
+  <si>
+    <t>of total population</t>
+  </si>
+  <si>
+    <t>people have had</t>
+  </si>
+  <si>
+    <t>a SARS-CoV-2 infection</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,13 +204,58 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="69"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -170,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -205,6 +315,36 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -1114,8 +1254,7 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
+      <c:areaChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -1139,7 +1278,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>data!$A$2:$A$16</c:f>
@@ -1277,7 +1415,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>data!$A$2:$A$16</c:f>
@@ -1400,11 +1537,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
         <c:axId val="1207535568"/>
         <c:axId val="1207600816"/>
-      </c:barChart>
+      </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1424,7 +1559,10 @@
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1446,19 +1584,88 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-3F0B-374E-B153-14719DA14F1B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-3F0B-374E-B153-14719DA14F1B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-3F0B-374E-B153-14719DA14F1B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-3F0B-374E-B153-14719DA14F1B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-3F0B-374E-B153-14719DA14F1B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-3F0B-374E-B153-14719DA14F1B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-3F0B-374E-B153-14719DA14F1B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-3F0B-374E-B153-14719DA14F1B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="8"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.6949152542371638E-3"/>
-                  <c:y val="1.3559322033898305E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1468,18 +1675,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="1.3559322033898242E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1489,18 +1685,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="2.2033898305084808E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1510,18 +1695,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.2429234947490705E-16"/>
-                  <c:y val="8.4745762711863782E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1531,18 +1705,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.3898305084747006E-3"/>
-                  <c:y val="2.3728813559322035E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1552,18 +1715,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.6949152542374123E-3"/>
-                  <c:y val="1.0169491525423728E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1575,8 +1727,8 @@
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.084745762711864E-3"/>
-                  <c:y val="-2.7118644067796609E-2"/>
+                  <c:x val="-5.9322033898305086E-2"/>
+                  <c:y val="-3.1073087368726764E-17"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2011,8 +2163,7 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
+      <c:areaChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -2036,7 +2187,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>data!$A$2:$A$16</c:f>
@@ -2174,7 +2324,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>data!$A$2:$A$16</c:f>
@@ -2297,11 +2446,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
         <c:axId val="1207535568"/>
         <c:axId val="1207600816"/>
-      </c:barChart>
+      </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2321,7 +2468,10 @@
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2344,18 +2494,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="1.8644067796610046E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2365,18 +2504,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="8.4745762711864406E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2386,18 +2514,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="8.4745762711864406E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2406,19 +2523,18 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-1098-8A45-B605-B9194C49FAB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-1.1864406779661017E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2427,19 +2543,18 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-1098-8A45-B605-B9194C49FAB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-6.2146174737453527E-17"/>
-                  <c:y val="1.1864406779661017E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2449,18 +2564,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="8.4745762711864406E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2470,18 +2574,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="1.3559322033898305E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2491,18 +2584,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="1.1864406779661017E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2512,18 +2594,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="1.1864406779661017E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2532,19 +2603,18 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-1098-8A45-B605-B9194C49FAB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="12"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="1.864406779661017E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2554,18 +2624,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="5.0847457627118025E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2577,8 +2636,8 @@
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-2.5423728813559324E-2"/>
+                  <c:x val="-6.2711864406779658E-2"/>
+                  <c:y val="-3.3898305084745762E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -3026,12 +3085,11 @@
           <c:yMode val="edge"/>
           <c:x val="8.3570532496997196E-2"/>
           <c:y val="7.9661016949152536E-2"/>
-          <c:w val="0.90456506072334175"/>
+          <c:w val="0.89100573868944344"/>
           <c:h val="0.88023728813559321"/>
         </c:manualLayout>
       </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
+      <c:areaChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -3055,7 +3113,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>data!$A$2:$A$16</c:f>
@@ -3193,7 +3250,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>data!$A$2:$A$16</c:f>
@@ -3316,11 +3372,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
         <c:axId val="1207535568"/>
         <c:axId val="1207600816"/>
-      </c:barChart>
+      </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -3362,19 +3416,128 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-622F-4144-9EFF-E347736B2CB7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-622F-4144-9EFF-E347736B2CB7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-622F-4144-9EFF-E347736B2CB7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-622F-4144-9EFF-E347736B2CB7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-622F-4144-9EFF-E347736B2CB7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-622F-4144-9EFF-E347736B2CB7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-622F-4144-9EFF-E347736B2CB7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-622F-4144-9EFF-E347736B2CB7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-622F-4144-9EFF-E347736B2CB7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-622F-4144-9EFF-E347736B2CB7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-622F-4144-9EFF-E347736B2CB7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-622F-4144-9EFF-E347736B2CB7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="12"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-6.7796610169491523E-3"/>
-                  <c:y val="-1.355932203389843E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3384,47 +3547,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.3898305084747006E-3"/>
-                  <c:y val="-5.084745762711864E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
@@ -3443,8 +3566,8 @@
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="2.5423728813559324E-2"/>
+                  <c:x val="-2.0338983050847456E-2"/>
+                  <c:y val="-5.5932203389830508E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -6031,1092 +6154,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.32542</cdr:x>
-      <cdr:y>0.88136</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.99492</cdr:x>
-      <cdr:y>0.95932</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{879F44A7-087F-AD4F-A3B0-AC4862A1AEFD}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2438373" y="6604030"/>
-          <a:ext cx="5016564" cy="584155"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>source: https://www.floridadisaster.org/news-media/news/</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>info: https://github.com/endymion/SARS-CoV-2_Analysis</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>updated: April 6, 6 PM</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:br>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.13898</cdr:x>
-      <cdr:y>0.12203</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.61864</cdr:x>
-      <cdr:y>0.31525</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FACEC6B-C4C5-3E47-91AE-E9058A2F8EE6}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1041400" y="914400"/>
-          <a:ext cx="3594100" cy="1447800"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CE3B9B0-3433-2A43-A939-51D78C203FCD}"/>
-            </a:ext>
-            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.32542</cdr:x>
-      <cdr:y>0.88136</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.99492</cdr:x>
-      <cdr:y>0.95932</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{879F44A7-087F-AD4F-A3B0-AC4862A1AEFD}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2438336" y="6604030"/>
-          <a:ext cx="5016564" cy="584155"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>source: https://www.floridadisaster.org/news-media/news/</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>info: https://github.com/endymion/SARS-CoV-2_Analysis</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>updated: April 6, 6 PM</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:br>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.13898</cdr:x>
-      <cdr:y>0.12203</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.61864</cdr:x>
-      <cdr:y>0.31525</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FACEC6B-C4C5-3E47-91AE-E9058A2F8EE6}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1041400" y="914400"/>
-          <a:ext cx="3594100" cy="1447800"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.10848</cdr:x>
-      <cdr:y>0.24915</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.52204</cdr:x>
-      <cdr:y>0.34407</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="6" name="TextBox 5">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC04FA3-4C1D-104C-9CF8-D4910BADB4DA}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="812804" y="1866885"/>
-          <a:ext cx="3098805" cy="711235"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>The bars</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t> illustrate the range of possible infections, from 5x to 7x the confirmed case count.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08DBEAE7-4F3E-A94C-B5FB-BBA57AF828AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.35424</cdr:x>
-      <cdr:y>0.88136</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.99661</cdr:x>
-      <cdr:y>0.95424</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{381B6C67-ABC4-EC4D-BA80-680BA1D6535C}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2654322" y="6603997"/>
-          <a:ext cx="4813278" cy="546090"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>source: https://www.floridadisaster.org/news-media/news/</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>info: https://github.com/endymion/SARS-CoV-2_Analysis</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>updated: April 6, 6 PM</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:br>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.14407</cdr:x>
-      <cdr:y>0.16271</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.54746</cdr:x>
-      <cdr:y>0.37458</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F50128-A32A-3744-B700-B421E24B7189}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1079500" y="1219200"/>
-          <a:ext cx="3022600" cy="1587500"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>The bars</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t> illustrate the range of estimates for the percentage of the population who are infected with SARS-CoV-2, as the range of the infection count estimates vary from 5x to 7x the confirmed case count.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.14068</cdr:x>
-      <cdr:y>0.41356</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.5661</cdr:x>
-      <cdr:y>0.51864</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A7E6E52-5D85-D044-9730-609C38B57084}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1054100" y="3098800"/>
-          <a:ext cx="3187700" cy="787400"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>The percentage at each point splits the difference between the 5x estimate</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t> and the 7x estimate.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28343D07-9895-1749-A6D0-89B65ACAC065}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{381B6C67-ABC4-EC4D-BA80-680BA1D6535C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="622300" y="6629400"/>
-          <a:ext cx="4140200" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>source: https://www.floridadisaster.org/news-media/news/</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>info: https://github.com/endymion/SARS-CoV-2_Analysis</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>updated: April 6, 6 PM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:br>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.33051</cdr:x>
-      <cdr:y>0.24068</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.95085</cdr:x>
-      <cdr:y>0.3661</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C86D55-AD5D-0647-BDF9-E042E5833A90}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2476511" y="1803413"/>
-          <a:ext cx="4648208" cy="939772"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>The bars</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t> illustrate the range of possible odds of a single person having been infected, as the range of infection counts varies from 5x to 7x the confirmed case count.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -7360,9 +6398,2831 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.32476</cdr:x>
+      <cdr:y>0.88831</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99426</cdr:x>
+      <cdr:y>0.96627</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{879F44A7-087F-AD4F-A3B0-AC4862A1AEFD}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2432708" y="6637108"/>
+          <a:ext cx="5015075" cy="582491"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>source: https://www.floridadisaster.org/news-media/news/</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>info: https://github.com/endymion/SARS-CoV-2_Analysis</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>updated: April 7 evening</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13898</cdr:x>
+      <cdr:y>0.12203</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.61864</cdr:x>
+      <cdr:y>0.31525</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FACEC6B-C4C5-3E47-91AE-E9058A2F8EE6}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1041400" y="914400"/>
+          <a:ext cx="3594100" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.15593</cdr:x>
+      <cdr:y>0.18305</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.55085</cdr:x>
+      <cdr:y>0.25932</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535659CE-BE5D-AB4A-907B-C8AF8C8EB654}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1168400" y="1371600"/>
+          <a:ext cx="2959100" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.10169</cdr:x>
+      <cdr:y>0.17288</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.72712</cdr:x>
+      <cdr:y>0.27288</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2186A96-4438-D045-84D9-1DD18F22AE97}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="762000" y="1295400"/>
+          <a:ext cx="4686300" cy="749300"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>The Florida Department of Emergency</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> Management has released city-by-city COVID-19 case counts since March 23, 2020.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.91434</cdr:x>
+      <cdr:y>0.86308</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.94466</cdr:x>
+      <cdr:y>0.89341</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="9" name="Picture 8">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D7986A-7415-0F47-B4AF-EF17F59A44E7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6849105" y="6448663"/>
+          <a:ext cx="227148" cy="226567"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.94666</cdr:x>
+      <cdr:y>0.86036</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98326</cdr:x>
+      <cdr:y>0.89695</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="11" name="Picture 10">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B73581-5AA0-A742-96EE-B09E327E0980}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7091245" y="6428276"/>
+          <a:ext cx="274131" cy="273431"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.64461</cdr:x>
+      <cdr:y>0.86245</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.90981</cdr:x>
+      <cdr:y>0.8975</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6925EEB4-7FEE-2443-A12A-013B3C3BB49A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4830095" y="6462303"/>
+          <a:ext cx="1987128" cy="262655"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rIns="0" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>daily updates @BeachCov2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CE3B9B0-3433-2A43-A939-51D78C203FCD}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13898</cdr:x>
+      <cdr:y>0.12203</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.61864</cdr:x>
+      <cdr:y>0.31525</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FACEC6B-C4C5-3E47-91AE-E9058A2F8EE6}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1041400" y="914400"/>
+          <a:ext cx="3594100" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.10848</cdr:x>
+      <cdr:y>0.24915</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.52204</cdr:x>
+      <cdr:y>0.34407</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC04FA3-4C1D-104C-9CF8-D4910BADB4DA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="812804" y="1866885"/>
+          <a:ext cx="3098805" cy="711235"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>The bars</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> illustrate the range of possible infections, from 5x to 7x the confirmed case count.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.32373</cdr:x>
+      <cdr:y>0.86185</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99323</cdr:x>
+      <cdr:y>0.93981</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="15" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B34CA446-DF80-7946-BE9F-514FB56B1E5F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2425700" y="6457829"/>
+          <a:ext cx="5016564" cy="584155"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>source: https://www.floridadisaster.org/news-media/news/</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>info: https://github.com/endymion/SARS-CoV-2_Analysis</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>updated: April 7 evening</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.91331</cdr:x>
+      <cdr:y>0.83663</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.94363</cdr:x>
+      <cdr:y>0.86695</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="16" name="Picture 15">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0637572-9380-D244-AE64-23F105707EBD}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6843408" y="6268845"/>
+          <a:ext cx="227216" cy="227214"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.94563</cdr:x>
+      <cdr:y>0.8339</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98223</cdr:x>
+      <cdr:y>0.87049</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="17" name="Picture 16">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C9F470-464D-EE43-8CCA-E4B6495286FA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7085620" y="6248400"/>
+          <a:ext cx="274213" cy="274212"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.64019</cdr:x>
+      <cdr:y>0.83599</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.90539</cdr:x>
+      <cdr:y>0.87104</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="18" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD1FE79-F2E0-9D48-8D58-9D023878541E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4796965" y="6264060"/>
+          <a:ext cx="1987128" cy="262655"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rIns="0" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>daily updates @BeachCov2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08DBEAE7-4F3E-A94C-B5FB-BBA57AF828AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14407</cdr:x>
+      <cdr:y>0.16271</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.54746</cdr:x>
+      <cdr:y>0.37458</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F50128-A32A-3744-B700-B421E24B7189}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1079500" y="1219200"/>
+          <a:ext cx="3022600" cy="1587500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>The bars</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> illustrate the range of estimates for the percentage of the population who are infected with SARS-CoV-2, as the range of the infection count estimates vary from 5x to 7x the confirmed case count.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14068</cdr:x>
+      <cdr:y>0.41356</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.5661</cdr:x>
+      <cdr:y>0.51864</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A7E6E52-5D85-D044-9730-609C38B57084}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1054100" y="3098800"/>
+          <a:ext cx="3187700" cy="787400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>The percentage at each point splits the difference between the 5x estimate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> and the 7x estimate.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.32542</cdr:x>
+      <cdr:y>0.8788</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99492</cdr:x>
+      <cdr:y>0.95676</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B34CA446-DF80-7946-BE9F-514FB56B1E5F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2438400" y="6584829"/>
+          <a:ext cx="5016564" cy="584155"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>source: https://www.floridadisaster.org/news-media/news/</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>info: https://github.com/endymion/SARS-CoV-2_Analysis</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>updated: April 7 evening</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.915</cdr:x>
+      <cdr:y>0.85358</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.94533</cdr:x>
+      <cdr:y>0.8839</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="6" name="Picture 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0637572-9380-D244-AE64-23F105707EBD}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6856108" y="6395845"/>
+          <a:ext cx="227216" cy="227214"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.94733</cdr:x>
+      <cdr:y>0.85085</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98392</cdr:x>
+      <cdr:y>0.88744</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="7" name="Picture 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C9F470-464D-EE43-8CCA-E4B6495286FA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7098320" y="6375400"/>
+          <a:ext cx="274213" cy="274212"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.64189</cdr:x>
+      <cdr:y>0.85294</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.90709</cdr:x>
+      <cdr:y>0.88799</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD1FE79-F2E0-9D48-8D58-9D023878541E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4809665" y="6391060"/>
+          <a:ext cx="1987128" cy="262655"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rIns="0" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>daily updates @BeachCov2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28343D07-9895-1749-A6D0-89B65ACAC065}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.16679</cdr:x>
+      <cdr:y>0.10652</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.87682</cdr:x>
+      <cdr:y>0.21405</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C86D55-AD5D-0647-BDF9-E042E5833A90}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1258456" y="815882"/>
+          <a:ext cx="5357090" cy="823573"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>The odds of any given person in Miami Beach having</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> been infected with SARS-CoV-2 is currently around one in 40.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.31695</cdr:x>
+      <cdr:y>0.5771</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98645</cdr:x>
+      <cdr:y>0.65506</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B34CA446-DF80-7946-BE9F-514FB56B1E5F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2374900" y="4324229"/>
+          <a:ext cx="5016564" cy="584155"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>source: https://www.floridadisaster.org/news-media/news/</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>info: https://github.com/endymion/SARS-CoV-2_Analysis</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>updated: April 7 evening</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.90653</cdr:x>
+      <cdr:y>0.55188</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93685</cdr:x>
+      <cdr:y>0.5822</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="9" name="Picture 8">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0637572-9380-D244-AE64-23F105707EBD}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6792608" y="4135245"/>
+          <a:ext cx="227216" cy="227214"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.93885</cdr:x>
+      <cdr:y>0.54915</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97545</cdr:x>
+      <cdr:y>0.58575</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="10" name="Picture 9">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C9F470-464D-EE43-8CCA-E4B6495286FA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7034820" y="4114800"/>
+          <a:ext cx="274213" cy="274212"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.63341</cdr:x>
+      <cdr:y>0.55124</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.89861</cdr:x>
+      <cdr:y>0.5863</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD1FE79-F2E0-9D48-8D58-9D023878541E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4746165" y="4130460"/>
+          <a:ext cx="1987128" cy="262655"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rIns="0" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>daily updates @BeachCov2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84407</cdr:x>
+      <cdr:y>0.83008</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93559</cdr:x>
+      <cdr:y>0.8589</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56340BD-9915-CB4B-9E72-92944620054E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6324600" y="6219825"/>
+          <a:ext cx="685800" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>one in</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.22494</cdr:x>
+      <cdr:y>0.25475</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.89518</cdr:x>
+      <cdr:y>0.36027</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F6C3B5-3514-A443-97E0-6C9BC0323D30}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1697181" y="1951182"/>
+          <a:ext cx="5056910" cy="808182"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>The blue area represents the uncertainty</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> in the estimate, based on the range </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>estimated for percentage of symptomatic cases reported.</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.2479</cdr:x>
+      <cdr:y>0.39494</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.84009</cdr:x>
+      <cdr:y>0.49894</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD772915-F01C-B04E-9B3E-7C21D346BBA0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1870364" y="3024909"/>
+          <a:ext cx="4468091" cy="796636"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.28156</cdr:x>
+      <cdr:y>0.41453</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.8355</cdr:x>
+      <cdr:y>0.49292</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30581B1A-87D6-E94C-8D02-7A4B1ADD72F6}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2124363" y="3175000"/>
+          <a:ext cx="4179455" cy="600364"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> estimated percentage of symptomatic cases </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>reported</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> for the US is 14% to 19%.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5824AD20-4A36-ED40-A659-C2689E09641E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="203200"/>
+          <a:ext cx="7454900" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>SARS-CoV-2 Infection Estimates - Miami Beach</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800" b="1" i="0">
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2227045</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2454172</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>156422</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1AE036-DA3D-A940-A8AD-98A994914C3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5974070" y="6253050"/>
+          <a:ext cx="227127" cy="221884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2478784</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>115679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>42907</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>186265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C44CBD-B441-0F49-9C94-710D7E1AD824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6225809" y="6234770"/>
+          <a:ext cx="282553" cy="270007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>745572</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>79917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>172689</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>140108</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7129D0C-0857-E042-BE56-0AE52D4E1244}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4492597" y="5999586"/>
+          <a:ext cx="2145547" cy="259613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rIns="0" rtlCol="0"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>daily updates @BeachCov2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>119717</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>115190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>632335</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>295254</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC9EABF1-2A65-2242-B7B2-B2D698FC5C40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="119717" y="6049769"/>
+          <a:ext cx="4085235" cy="583616"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>source: https://www.floridadisaster.org/news-media/news/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>info: https://github.com/endymion/SARS-CoV-2_Analysis</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>updated: April 7 morning</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3BE4AE7D-0714-C143-A688-292634C906F9}" name="Table2" displayName="Table2" ref="A1:O18" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowCellStyle="Heading 3">
-  <autoFilter ref="A1:O18" xr:uid="{550F0C45-D7F8-B94B-924D-6E337BF889A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3BE4AE7D-0714-C143-A688-292634C906F9}" name="Table2" displayName="Table2" ref="A1:O17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowCellStyle="Heading 3">
+  <autoFilter ref="A1:O17" xr:uid="{550F0C45-D7F8-B94B-924D-6E337BF889A7}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{5A8F4760-7ADB-5643-B32D-8C30EC7E1E18}" name="date" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{1A056131-5760-2749-834E-BF55DAB2649A}" name="cases" dataDxfId="13"/>
@@ -7707,8 +9567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE0C3CE-5E19-6B41-9872-01F52BB95541}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7723,7 +9583,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7739,7 +9599,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7753,8 +9613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6ECF80D-2857-A34D-922F-CA38FC7127B2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7765,11 +9625,296 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9297C01-C3D2-1847-9FB2-9AC9F9E0C4BE}">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="2.83203125" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" customWidth="1"/>
+    <col min="6" max="6" width="2.83203125" customWidth="1"/>
+    <col min="7" max="7" width="32.83203125" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="25"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:12" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="30">
+        <f ca="1">OFFSET(data!B1,COUNTA(data!B:B)-1,0)</f>
+        <v>426</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="21">
+        <f ca="1">OFFSET(data!F1,COUNTA(data!F:F)-1,0)</f>
+        <v>2556</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:12" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="23">
+        <f ca="1">OFFSET(data!J1,COUNTA(data!J:J)-1,0)</f>
+        <v>2.7690207676557575E-2</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="22">
+        <f ca="1">OFFSET(data!N1,COUNTA(data!N:N)-1,0)</f>
+        <v>37.145674044265597</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="26"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1E0E18-E130-924E-B8A9-7F036230CE4B}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8701,111 +10846,58 @@
       <c r="A17" s="9">
         <v>43928</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="10">
+        <v>426</v>
+      </c>
       <c r="C17" s="1">
         <f>Table2[[#This Row],[cases]]*5</f>
-        <v>0</v>
+        <v>2130</v>
       </c>
       <c r="D17" s="1">
         <f>Table2[[#This Row],[cases]]*7</f>
-        <v>0</v>
+        <v>2982</v>
       </c>
       <c r="E17" s="1">
         <f>Table2[[#This Row],[infection count, estimating 7x cases infected]]-Table2[[#This Row],[infection count estimating 5x cases infected]]</f>
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="F17" s="1">
         <f>(Table2[[#This Row],[infection count estimating 5x cases infected]]+Table2[[#This Row],[infection count, estimating 7x cases infected]])/2</f>
-        <v>0</v>
+        <v>2556</v>
       </c>
       <c r="G17" s="16">
         <f>Table2[[#This Row],[infection count estimating 5x cases infected]]/$O$3</f>
-        <v>0</v>
+        <v>2.3075173063797978E-2</v>
       </c>
       <c r="H17" s="15">
         <f>Table2[[#This Row],[infection count, estimating 7x cases infected]]/$O$3</f>
-        <v>0</v>
+        <v>3.2305242289317172E-2</v>
       </c>
       <c r="I17" s="16">
         <f>Table2[[#This Row],[infection percentage, estimating 7x cases infected]]-Table2[[#This Row],[infection percentage, estimating 5x cases infected]]</f>
-        <v>0</v>
+        <v>9.2300692255191941E-3</v>
       </c>
       <c r="J17" s="16">
         <f>(Table2[[#This Row],[infection percentage, estimating 5x cases infected]]+Table2[[#This Row],[infection percentage, estimating 7x cases infected]])/2</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="e">
+        <v>2.7690207676557575E-2</v>
+      </c>
+      <c r="K17" s="3">
         <f>$O$3/(Table2[[#This Row],[cases]]*5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="3" t="e">
+        <v>43.336619718309862</v>
+      </c>
+      <c r="L17" s="3">
         <f>$O$3/(Table2[[#This Row],[cases]]*7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="3" t="e">
+        <v>30.954728370221329</v>
+      </c>
+      <c r="M17" s="3">
         <f>Table2[[#This Row],[1-in-X odds, estimating 5x cases infected]]-Table2[[#This Row],[1-in-X odds, estimating 7x cases infected]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="3" t="e">
+        <v>12.381891348088534</v>
+      </c>
+      <c r="N17" s="3">
         <f>(Table2[[#This Row],[1-in-X odds, estimating 5x cases infected]]+Table2[[#This Row],[1-in-X odds, estimating 7x cases infected]])/2</f>
-        <v>#DIV/0!</v>
+        <v>37.145674044265597</v>
       </c>
       <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
-        <v>43929</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1">
-        <f>Table2[[#This Row],[cases]]*5</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <f>Table2[[#This Row],[cases]]*7</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <f>Table2[[#This Row],[infection count, estimating 7x cases infected]]-Table2[[#This Row],[infection count estimating 5x cases infected]]</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <f>(Table2[[#This Row],[infection count estimating 5x cases infected]]+Table2[[#This Row],[infection count, estimating 7x cases infected]])/2</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="16">
-        <f>Table2[[#This Row],[infection count estimating 5x cases infected]]/$O$3</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="15">
-        <f>Table2[[#This Row],[infection count, estimating 7x cases infected]]/$O$3</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="16">
-        <f>Table2[[#This Row],[infection percentage, estimating 7x cases infected]]-Table2[[#This Row],[infection percentage, estimating 5x cases infected]]</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="16">
-        <f>(Table2[[#This Row],[infection percentage, estimating 5x cases infected]]+Table2[[#This Row],[infection percentage, estimating 7x cases infected]])/2</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="e">
-        <f>$O$3/(Table2[[#This Row],[cases]]*5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="3" t="e">
-        <f>$O$3/(Table2[[#This Row],[cases]]*7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="3" t="e">
-        <f>Table2[[#This Row],[1-in-X odds, estimating 5x cases infected]]-Table2[[#This Row],[1-in-X odds, estimating 7x cases infected]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="3" t="e">
-        <f>(Table2[[#This Row],[1-in-X odds, estimating 5x cases infected]]+Table2[[#This Row],[1-in-X odds, estimating 7x cases infected]])/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/SARS-CoV-2 Analysis - Miami Beach.xlsx
+++ b/SARS-CoV-2 Analysis - Miami Beach.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/work/Library/Mobile Documents/com~apple~CloudDocs/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592EFA01-E821-E448-A30E-1AF21C4E2C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7F47DD-6459-AF40-9A46-231D854C8149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{5746141D-E7E8-714E-A98D-1CE69C8603B7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{5746141D-E7E8-714E-A98D-1CE69C8603B7}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="5" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>date</t>
   </si>
@@ -148,15 +148,49 @@
   <si>
     <t>a SARS-CoV-2 infection</t>
   </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>computed</t>
+  </si>
+  <si>
+    <t>source: https://www.floridadisaster.org/news-media/news/</t>
+  </si>
+  <si>
+    <t>info: https://github.com/endymion/SARS-CoV-2_Analysis</t>
+  </si>
+  <si>
+    <t>labels</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>cases:</t>
+  </si>
+  <si>
+    <t>current date:</t>
+  </si>
+  <si>
+    <t>infected:</t>
+  </si>
+  <si>
+    <t>percentage:</t>
+  </si>
+  <si>
+    <t>odds:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="172" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,6 +240,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
       <color theme="0"/>
       <name val="Helvetica"/>
@@ -222,6 +264,31 @@
       <b/>
       <sz val="69"/>
       <color theme="0"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="7"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF7F8FA9"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
@@ -280,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -317,40 +384,102 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -462,7 +591,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="168" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <font>
@@ -723,7 +852,18 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
               </a:rPr>
-              <a:t> of COVID-19 Cases - Miami Beach</a:t>
+              <a:t> of Confirmed COVID-19 Cases</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t>Miami Beach</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1800" b="1" i="0">
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
@@ -762,7 +902,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.679087148004804E-2"/>
+          <c:y val="0.10847457627118644"/>
+          <c:w val="0.90456506072334175"/>
+          <c:h val="0.84972881355932206"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -809,8 +959,8 @@
               <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-2.2033898305084745E-2"/>
+                  <c:x val="-1.6949152542374123E-3"/>
+                  <c:y val="6.7796610169491523E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -823,6 +973,27 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-CBB1-2147-99CA-ED8FAC854646}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.77966101694914E-2"/>
+                  <c:y val="1.6949152542372881E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-CBB1-2147-99CA-ED8FAC854646}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -884,10 +1055,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>data!$A$2:$A$16</c:f>
+              <c:f>data!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>43913</c:v>
                 </c:pt>
@@ -932,16 +1103,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$B$2:$B$16</c:f>
+              <c:f>data!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>33</c:v>
                 </c:pt>
@@ -986,6 +1160,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1059,7 +1236,7 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="2"/>
+        <c:majorUnit val="3"/>
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
@@ -1208,13 +1385,24 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0">
                 <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
               </a:rPr>
-              <a:t>Number</a:t>
+              <a:t>Estimated Number</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
               </a:rPr>
-              <a:t> of SARS-CoV-2 Infections - Miami Beach</a:t>
+              <a:t> of SARS-CoV-2 Infections</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t>Miami Beach</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1800" b="1" i="0">
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
@@ -1253,7 +1441,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1875617242759916E-2"/>
+          <c:y val="0.11186440677966102"/>
+          <c:w val="0.88948031496062996"/>
+          <c:h val="0.84633898305084743"/>
+        </c:manualLayout>
+      </c:layout>
       <c:areaChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
@@ -1280,10 +1478,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>data!$A$2:$A$16</c:f>
+              <c:f>data!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>43913</c:v>
                 </c:pt>
@@ -1328,16 +1526,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$C$2:$C$16</c:f>
+              <c:f>data!$C$2:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>165</c:v>
                 </c:pt>
@@ -1382,6 +1583,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1417,10 +1621,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>data!$A$2:$A$16</c:f>
+              <c:f>data!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>43913</c:v>
                 </c:pt>
@@ -1465,16 +1669,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$16</c:f>
+              <c:f>data!$E$2:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>66</c:v>
                 </c:pt>
@@ -1519,6 +1726,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1560,7 +1770,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:prstDash val="sysDot"/>
               <a:round/>
@@ -1576,7 +1786,7 @@
               </a:solidFill>
               <a:ln w="38100">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1725,10 +1935,20 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-710F-4244-96A2-807873A8045E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.9322033898305086E-2"/>
-                  <c:y val="-3.1073087368726764E-17"/>
+                  <c:x val="-6.4388331744396787E-2"/>
+                  <c:y val="1.4749542797392973E-5"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -1740,7 +1960,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-710F-4244-96A2-807873A8045E}"/>
+                  <c16:uniqueId val="{00000008-3F0B-374E-B153-14719DA14F1B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1802,10 +2022,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>data!$A$2:$A$15</c:f>
+              <c:f>data!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>43913</c:v>
                 </c:pt>
@@ -1847,16 +2067,22 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$F$2:$F$16</c:f>
+              <c:f>data!$F$2:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>198</c:v>
                 </c:pt>
@@ -1901,6 +2127,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2376</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1974,7 +2203,7 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="2"/>
+        <c:majorUnit val="3"/>
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
@@ -2123,7 +2352,18 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
               </a:rPr>
-              <a:t>SARS-CoV-2 Infection Percentage - Miami Beach</a:t>
+              <a:t>Estimated SARS-CoV-2 Infection Percentage</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t>Miami Beach</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1800" b="1" i="0">
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
@@ -2162,7 +2402,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10843507273455225"/>
+          <c:y val="0.12033898305084746"/>
+          <c:w val="0.87292085946883757"/>
+          <c:h val="0.8378644067796609"/>
+        </c:manualLayout>
+      </c:layout>
       <c:areaChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
@@ -2189,10 +2439,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>data!$A$2:$A$16</c:f>
+              <c:f>data!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>43913</c:v>
                 </c:pt>
@@ -2237,16 +2487,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$G$2:$G$16</c:f>
+              <c:f>data!$G$2:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.7875134063505477E-3</c:v>
                 </c:pt>
@@ -2291,6 +2544,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.1450160876206572E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3075173063797978E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2326,10 +2582,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>data!$A$2:$A$16</c:f>
+              <c:f>data!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>43913</c:v>
                 </c:pt>
@@ -2374,16 +2630,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$I$2:$I$16</c:f>
+              <c:f>data!$I$2:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>7.1500536254021888E-4</c:v>
                 </c:pt>
@@ -2428,6 +2687,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>8.5800643504826274E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.2300692255191941E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2469,7 +2731,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:prstDash val="sysDot"/>
               <a:round/>
@@ -2485,7 +2747,7 @@
               </a:solidFill>
               <a:ln w="38100">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2634,10 +2896,20 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-AF72-1848-8D14-2279B6F7C74F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.2711864406779658E-2"/>
-                  <c:y val="-3.3898305084745762E-3"/>
+                  <c:x val="-6.1016949152542375E-2"/>
+                  <c:y val="-3.1073087368726764E-17"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2649,7 +2921,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-AF72-1848-8D14-2279B6F7C74F}"/>
+                  <c16:uniqueId val="{00000003-1098-8A45-B605-B9194C49FAB8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2711,10 +2983,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>data!$A$2:$A$16</c:f>
+              <c:f>data!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>43913</c:v>
                 </c:pt>
@@ -2759,16 +3031,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$J$2:$J$16</c:f>
+              <c:f>data!$J$2:$J$19</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2.1450160876206573E-3</c:v>
                 </c:pt>
@@ -2813,6 +3088,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.5740193051447886E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7690207676557575E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2886,6 +3164,8 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="3"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="1207600816"/>
@@ -3039,7 +3319,18 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
               </a:rPr>
-              <a:t> SARS-CoV-2 Infection Odds - Miami Beach</a:t>
+              <a:t> SARS-CoV-2 Infection Odds</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t>Miami Beach</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1800" b="1" i="0">
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
@@ -3084,9 +3375,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.3570532496997196E-2"/>
-          <c:y val="7.9661016949152536E-2"/>
+          <c:y val="0.10847457627118644"/>
           <c:w val="0.89100573868944344"/>
-          <c:h val="0.88023728813559321"/>
+          <c:h val="0.85142372881355932"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -3115,10 +3406,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>data!$A$2:$A$16</c:f>
+              <c:f>data!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>43913</c:v>
                 </c:pt>
@@ -3163,16 +3454,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$L$2:$L$16</c:f>
+              <c:f>data!$L$2:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>399.59740259740261</c:v>
                 </c:pt>
@@ -3217,6 +3511,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>33.299783549783548</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.954728370221329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3252,10 +3549,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>data!$A$2:$A$16</c:f>
+              <c:f>data!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>43913</c:v>
                 </c:pt>
@@ -3300,16 +3597,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$M$2:$M$16</c:f>
+              <c:f>data!$M$2:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>159.83896103896097</c:v>
                 </c:pt>
@@ -3354,6 +3654,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>13.319913419913419</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.381891348088534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3564,10 +3867,20 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-C553-D445-B33F-413FEAB8BC84}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.0338983050847456E-2"/>
-                  <c:y val="-5.5932203389830508E-2"/>
+                  <c:x val="-3.2203389830508473E-2"/>
+                  <c:y val="-5.9322033898305086E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -3579,7 +3892,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-C553-D445-B33F-413FEAB8BC84}"/>
+                  <c16:uniqueId val="{0000000C-622F-4144-9EFF-E347736B2CB7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3641,10 +3954,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>data!$A$2:$A$16</c:f>
+              <c:f>data!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>43913</c:v>
                 </c:pt>
@@ -3689,16 +4002,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$N$2:$N$16</c:f>
+              <c:f>data!$N$2:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>479.51688311688309</c:v>
                 </c:pt>
@@ -3743,6 +4059,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>39.959740259740258</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.145674044265597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3816,7 +4135,7 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="2"/>
+        <c:majorUnit val="3"/>
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
@@ -6158,7 +6477,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
@@ -6402,14 +6721,14 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.32476</cdr:x>
-      <cdr:y>0.88831</cdr:y>
+      <cdr:x>0.00339</cdr:x>
+      <cdr:y>0.06949</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99426</cdr:x>
-      <cdr:y>0.96627</cdr:y>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.10847</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="">
+    <cdr:sp macro="" textlink="data!$Q$20">
       <cdr:nvSpPr>
         <cdr:cNvPr id="4" name="TextBox 3">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -6422,8 +6741,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2432708" y="6637108"/>
-          <a:ext cx="5015075" cy="582491"/>
+          <a:off x="25400" y="520700"/>
+          <a:ext cx="7467600" cy="292100"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6433,66 +6752,22 @@
         <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
+          <a:pPr algn="ctr"/>
+          <a:fld id="{61F1E553-D162-2F4C-AAAC-0DB0713CAA6A}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:latin typeface="Helvetica"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>source: https://www.floridadisaster.org/news-media/news/</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>info: https://github.com/endymion/SARS-CoV-2_Analysis</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>updated: April 7 evening</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:br>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en-US" sz="1200">
+            <a:t>updated April 07, 2020 evening</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
@@ -6581,12 +6856,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.10169</cdr:x>
-      <cdr:y>0.17288</cdr:y>
+      <cdr:x>0.08475</cdr:x>
+      <cdr:y>0.30169</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.72712</cdr:x>
-      <cdr:y>0.27288</cdr:y>
+      <cdr:x>0.71017</cdr:x>
+      <cdr:y>0.40169</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -6601,7 +6876,7 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="762000" y="1295400"/>
+          <a:off x="635000" y="2260600"/>
           <a:ext cx="4686300" cy="749300"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -6642,12 +6917,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.91434</cdr:x>
-      <cdr:y>0.86308</cdr:y>
+      <cdr:x>0.91598</cdr:x>
+      <cdr:y>0.87048</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.94466</cdr:x>
-      <cdr:y>0.89341</cdr:y>
+      <cdr:x>0.94631</cdr:x>
+      <cdr:y>0.9008</cdr:y>
     </cdr:to>
     <cdr:pic>
       <cdr:nvPicPr>
@@ -6676,8 +6951,8 @@
       </cdr:blipFill>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6849105" y="6448663"/>
-          <a:ext cx="227148" cy="226567"/>
+          <a:off x="6868542" y="6530236"/>
+          <a:ext cx="227384" cy="227483"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6687,12 +6962,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.94666</cdr:x>
-      <cdr:y>0.86036</cdr:y>
+      <cdr:x>0.94831</cdr:x>
+      <cdr:y>0.86775</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.98326</cdr:x>
-      <cdr:y>0.89695</cdr:y>
+      <cdr:x>0.9849</cdr:x>
+      <cdr:y>0.90435</cdr:y>
     </cdr:to>
     <cdr:pic>
       <cdr:nvPicPr>
@@ -6721,8 +6996,8 @@
       </cdr:blipFill>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7091245" y="6428276"/>
-          <a:ext cx="274131" cy="273431"/>
+          <a:off x="7110933" y="6509766"/>
+          <a:ext cx="274416" cy="274537"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6732,12 +7007,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.64461</cdr:x>
-      <cdr:y>0.86245</cdr:y>
+      <cdr:x>0.64626</cdr:x>
+      <cdr:y>0.86984</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.90981</cdr:x>
-      <cdr:y>0.8975</cdr:y>
+      <cdr:x>0.91146</cdr:x>
+      <cdr:y>0.90489</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -6752,8 +7027,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4830095" y="6462303"/>
-          <a:ext cx="1987128" cy="262655"/>
+          <a:off x="4846002" y="6525445"/>
+          <a:ext cx="1988600" cy="262966"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6795,6 +7070,282 @@
               <a:schemeClr val="tx2"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08475</cdr:x>
+      <cdr:y>0.20508</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.71017</cdr:x>
+      <cdr:y>0.30508</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="data!$Q$23">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="14" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{392376A0-31A3-B644-97AA-7A0FEBDB7298}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="635000" y="1536700"/>
+          <a:ext cx="4686300" cy="749300"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fld id="{3E65A84A-3AC8-A84B-9A0A-45C27F639C53}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="7F8FA9"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>There have been 426 confirmed cases of COVID-19 disease in Miami Beach since the start of the outbreak.</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.44992</cdr:x>
+      <cdr:y>0.89825</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99399</cdr:x>
+      <cdr:y>0.93385</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="data!$Q$17">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3DDF53-093B-0949-A56B-04D78C856C21}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3373778" y="6738590"/>
+          <a:ext cx="4079719" cy="267016"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fld id="{C6ED34D5-EFD8-C645-AFC1-BE5426D53343}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="7F8FA9"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>source: https://www.floridadisaster.org/news-media/news/</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.46535</cdr:x>
+      <cdr:y>0.92455</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99235</cdr:x>
+      <cdr:y>0.96014</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="data!$Q$18">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="16" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A85CDEB-2681-7345-A08C-02244DACFF3E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3489418" y="6935866"/>
+          <a:ext cx="3951796" cy="267016"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:fld id="{A3602FB1-776F-2C46-9FDD-FAFC96518D91}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="7F8FA9"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica"/>
+            </a:rPr>
+            <a:pPr algn="r"/>
+            <a:t>info: https://github.com/endymion/SARS-CoV-2_Analysis</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -6890,12 +7441,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.10848</cdr:x>
-      <cdr:y>0.24915</cdr:y>
+      <cdr:x>0.10509</cdr:x>
+      <cdr:y>0.24746</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.52204</cdr:x>
-      <cdr:y>0.34407</cdr:y>
+      <cdr:x>0.74407</cdr:x>
+      <cdr:y>0.34238</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -6910,8 +7461,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="812804" y="1866885"/>
-          <a:ext cx="3098805" cy="711235"/>
+          <a:off x="787404" y="1854185"/>
+          <a:ext cx="4787896" cy="711235"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6921,6 +7472,23 @@
         <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1600">
               <a:solidFill>
@@ -6928,7 +7496,7 @@
               </a:solidFill>
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t>The bars</a:t>
+            <a:t>The blue area represents the uncertainty</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -6937,33 +7505,39 @@
               </a:solidFill>
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t> illustrate the range of possible infections, from 5x to 7x the confirmed case count.</a:t>
+            <a:t> in the estimate, based on the range </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>estimated for percentage of symptomatic cases reported.</a:t>
+          </a:r>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.32373</cdr:x>
-      <cdr:y>0.86185</cdr:y>
+      <cdr:x>0.10339</cdr:x>
+      <cdr:y>0.37119</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99323</cdr:x>
-      <cdr:y>0.93981</cdr:y>
+      <cdr:x>0.65733</cdr:x>
+      <cdr:y>0.44957</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="15" name="TextBox 1">
+        <cdr:cNvPr id="19" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B34CA446-DF80-7946-BE9F-514FB56B1E5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00138ED-F82F-A74A-9F3A-47024411D6C0}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -6971,8 +7545,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2425700" y="6457829"/>
-          <a:ext cx="5016564" cy="584155"/>
+          <a:off x="774700" y="2781300"/>
+          <a:ext cx="4150675" cy="587332"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7046,9 +7620,8 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -7057,13 +7630,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>source: https://www.floridadisaster.org/news-media/news/</a:t>
+            <a:t>The</a:t>
           </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -7072,13 +7642,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>info: https://github.com/endymion/SARS-CoV-2_Analysis</a:t>
+            <a:t> estimated percentage of symptomatic cases </a:t>
           </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -7087,13 +7654,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>updated: April 7 evening</a:t>
+            <a:t>reported</a:t>
           </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:br>
-            <a:rPr lang="en-US" sz="1200">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -7102,8 +7666,150 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en-US" sz="1200">
+            <a:t> for the US is 14% to 19%.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.10678</cdr:x>
+      <cdr:y>0.1322</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.74576</cdr:x>
+      <cdr:y>0.22712</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="20" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3BFB61-C5E4-624F-9591-5EF8EC0509E9}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="800100" y="990600"/>
+          <a:ext cx="4787896" cy="711235"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Around 2,556 people in</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> Miami Beach may have already been infected with the SARS-CoV-2 virus, based on a population count of 92,307.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:schemeClr val="accent4"/>
             </a:solidFill>
@@ -7118,19 +7824,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.91331</cdr:x>
-      <cdr:y>0.83663</cdr:y>
+      <cdr:x>0.91577</cdr:x>
+      <cdr:y>0.85689</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.94363</cdr:x>
-      <cdr:y>0.86695</cdr:y>
+      <cdr:x>0.94635</cdr:x>
+      <cdr:y>0.88639</cdr:y>
     </cdr:to>
     <cdr:pic>
       <cdr:nvPicPr>
-        <cdr:cNvPr id="16" name="Picture 15">
+        <cdr:cNvPr id="21" name="Picture 20">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0637572-9380-D244-AE64-23F105707EBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A129B7A4-B127-7B46-AC99-96255996142F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7152,8 +7858,8 @@
       </cdr:blipFill>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6843408" y="6268845"/>
-          <a:ext cx="227216" cy="227214"/>
+          <a:off x="6861872" y="6420691"/>
+          <a:ext cx="229141" cy="221052"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7163,19 +7869,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.94563</cdr:x>
-      <cdr:y>0.8339</cdr:y>
+      <cdr:x>0.94837</cdr:x>
+      <cdr:y>0.85424</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.98223</cdr:x>
-      <cdr:y>0.87049</cdr:y>
+      <cdr:x>0.98528</cdr:x>
+      <cdr:y>0.88984</cdr:y>
     </cdr:to>
     <cdr:pic>
       <cdr:nvPicPr>
-        <cdr:cNvPr id="17" name="Picture 16">
+        <cdr:cNvPr id="22" name="Picture 21">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C9F470-464D-EE43-8CCA-E4B6495286FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5269D436-3F63-FF40-BF05-35C05CC9CD70}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7197,8 +7903,8 @@
       </cdr:blipFill>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7085620" y="6248400"/>
-          <a:ext cx="274213" cy="274212"/>
+          <a:off x="7106136" y="6400800"/>
+          <a:ext cx="276537" cy="266776"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7208,19 +7914,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.64019</cdr:x>
-      <cdr:y>0.83599</cdr:y>
+      <cdr:x>0.64376</cdr:x>
+      <cdr:y>0.85627</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.90539</cdr:x>
-      <cdr:y>0.87104</cdr:y>
+      <cdr:x>0.91121</cdr:x>
+      <cdr:y>0.89037</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="18" name="TextBox 4">
+        <cdr:cNvPr id="23" name="TextBox 3">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD1FE79-F2E0-9D48-8D58-9D023878541E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E91F91D-9425-D244-BC26-0DB78ECCD727}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7228,12 +7934,13 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4796965" y="6264060"/>
-          <a:ext cx="1987128" cy="262655"/>
+          <a:off x="4823701" y="6416036"/>
+          <a:ext cx="2003969" cy="255532"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
       </cdr:spPr>
       <cdr:txBody>
         <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rIns="0" rtlCol="0"/>
@@ -7333,6 +8040,352 @@
             <a:solidFill>
               <a:schemeClr val="tx2"/>
             </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.44576</cdr:x>
+      <cdr:y>0.88391</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99444</cdr:x>
+      <cdr:y>0.91854</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="data!$Q$17">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="24" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A007E7-FD8C-D14C-B937-88B9032C3A37}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3340100" y="6623155"/>
+          <a:ext cx="4111248" cy="259468"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fld id="{FC882618-52D7-EF4F-AC1C-F8454390F549}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="7F8FA9"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>source: https://www.floridadisaster.org/news-media/news/</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.46131</cdr:x>
+      <cdr:y>0.9095</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99279</cdr:x>
+      <cdr:y>0.94412</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="data!$Q$18">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="25" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A73D558A-8A5C-ED41-9469-136B7A2D5BBD}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3456633" y="6814854"/>
+          <a:ext cx="3982337" cy="259468"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:fld id="{5D05C0B3-8DD0-AB48-A2A9-66D3AF07846E}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="7F8FA9"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>info: https://github.com/endymion/SARS-CoV-2_Analysis</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.07288</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.11081</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="data!$Q$20">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="26" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C6632D-BA5D-464C-89CC-B84F39711254}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="546100"/>
+          <a:ext cx="7493000" cy="284179"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:fld id="{7E069C6E-CE9B-3143-B6F6-BE74D94347F5}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>updated April 07, 2020 evening</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </cdr:txBody>
@@ -7388,19 +8441,19 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.14407</cdr:x>
-      <cdr:y>0.16271</cdr:y>
+      <cdr:x>0.11695</cdr:x>
+      <cdr:y>0.25254</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.54746</cdr:x>
-      <cdr:y>0.37458</cdr:y>
+      <cdr:x>0.75593</cdr:x>
+      <cdr:y>0.34746</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="TextBox 2">
+        <cdr:cNvPr id="9" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F50128-A32A-3744-B700-B421E24B7189}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3301BA24-A0A5-F848-9974-2D3782F392D3}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7408,19 +8461,80 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1079500" y="1219200"/>
-          <a:ext cx="3022600" cy="1587500"/>
+          <a:off x="876304" y="1892300"/>
+          <a:ext cx="4787896" cy="711235"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
@@ -7446,7 +8560,7 @@
               </a:solidFill>
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t>The bars</a:t>
+            <a:t>The blue area represents the uncertainty</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -7455,13 +8569,173 @@
               </a:solidFill>
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t> illustrate the range of estimates for the percentage of the population who are infected with SARS-CoV-2, as the range of the infection count estimates vary from 5x to 7x the confirmed case count.</a:t>
+            <a:t> in the estimate, based on the range </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>estimated for percentage of symptomatic cases reported.</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.11525</cdr:x>
+      <cdr:y>0.38475</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.66919</cdr:x>
+      <cdr:y>0.46313</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F04EB5C7-D45E-DF47-9D4B-142246AC1BF9}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="863600" y="2882915"/>
+          <a:ext cx="4150675" cy="587332"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> estimated percentage of symptomatic cases </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>reported</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> for the US is 14% to 19%.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600">
             <a:solidFill>
               <a:schemeClr val="accent4"/>
             </a:solidFill>
-            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </cdr:txBody>
@@ -7469,19 +8743,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.14068</cdr:x>
-      <cdr:y>0.41356</cdr:y>
+      <cdr:x>0.12203</cdr:x>
+      <cdr:y>0.1339</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.5661</cdr:x>
-      <cdr:y>0.51864</cdr:y>
+      <cdr:x>0.81525</cdr:x>
+      <cdr:y>0.22882</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="">
+    <cdr:sp macro="" textlink="data!$Q$27">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="TextBox 3">
+        <cdr:cNvPr id="13" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A7E6E52-5D85-D044-9730-609C38B57084}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85ABA93-089B-4B4C-BFA6-8C7675044928}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7489,19 +8763,80 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1054100" y="3098800"/>
-          <a:ext cx="3187700" cy="787400"/>
+          <a:off x="914400" y="1003300"/>
+          <a:ext cx="5194300" cy="711235"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
@@ -7520,197 +8855,16 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
+          <a:fld id="{1BBCAA78-C3A5-544E-AC7C-9911593E2973}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="7F8FA9"/>
               </a:solidFill>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:latin typeface="Helvetica"/>
             </a:rPr>
-            <a:t>The percentage at each point splits the difference between the 5x estimate</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t> and the 7x estimate.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.32542</cdr:x>
-      <cdr:y>0.8788</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.99492</cdr:x>
-      <cdr:y>0.95676</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="5" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B34CA446-DF80-7946-BE9F-514FB56B1E5F}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2438400" y="6584829"/>
-          <a:ext cx="5016564" cy="584155"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>source: https://www.floridadisaster.org/news-media/news/</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>info: https://github.com/endymion/SARS-CoV-2_Analysis</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>updated: April 7 evening</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:br>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en-US" sz="1200">
+            <a:t>Around 2.8% of the total population of Miami Beach may have already been infected with the SARS-CoV-2 virus, based on a population count of 92307.</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:schemeClr val="accent4"/>
             </a:solidFill>
@@ -7725,19 +8879,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.915</cdr:x>
-      <cdr:y>0.85358</cdr:y>
+      <cdr:x>0.91747</cdr:x>
+      <cdr:y>0.85689</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.94533</cdr:x>
-      <cdr:y>0.8839</cdr:y>
+      <cdr:x>0.94805</cdr:x>
+      <cdr:y>0.88639</cdr:y>
     </cdr:to>
     <cdr:pic>
       <cdr:nvPicPr>
-        <cdr:cNvPr id="6" name="Picture 5">
+        <cdr:cNvPr id="14" name="Picture 13">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0637572-9380-D244-AE64-23F105707EBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A129B7A4-B127-7B46-AC99-96255996142F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7759,8 +8913,8 @@
       </cdr:blipFill>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6856108" y="6395845"/>
-          <a:ext cx="227216" cy="227214"/>
+          <a:off x="6874572" y="6420691"/>
+          <a:ext cx="229141" cy="221052"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7770,19 +8924,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.94733</cdr:x>
-      <cdr:y>0.85085</cdr:y>
+      <cdr:x>0.95006</cdr:x>
+      <cdr:y>0.85424</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.98392</cdr:x>
-      <cdr:y>0.88744</cdr:y>
+      <cdr:x>0.98697</cdr:x>
+      <cdr:y>0.88984</cdr:y>
     </cdr:to>
     <cdr:pic>
       <cdr:nvPicPr>
-        <cdr:cNvPr id="7" name="Picture 6">
+        <cdr:cNvPr id="15" name="Picture 14">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C9F470-464D-EE43-8CCA-E4B6495286FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5269D436-3F63-FF40-BF05-35C05CC9CD70}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7804,8 +8958,8 @@
       </cdr:blipFill>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7098320" y="6375400"/>
-          <a:ext cx="274213" cy="274212"/>
+          <a:off x="7118836" y="6400800"/>
+          <a:ext cx="276537" cy="266776"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7815,19 +8969,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.64189</cdr:x>
-      <cdr:y>0.85294</cdr:y>
+      <cdr:x>0.64546</cdr:x>
+      <cdr:y>0.85627</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.90709</cdr:x>
-      <cdr:y>0.88799</cdr:y>
+      <cdr:x>0.9129</cdr:x>
+      <cdr:y>0.89037</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="8" name="TextBox 4">
+        <cdr:cNvPr id="16" name="TextBox 3">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD1FE79-F2E0-9D48-8D58-9D023878541E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E91F91D-9425-D244-BC26-0DB78ECCD727}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7835,12 +8989,13 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4809665" y="6391060"/>
-          <a:ext cx="1987128" cy="262655"/>
+          <a:off x="4836401" y="6416036"/>
+          <a:ext cx="2003969" cy="255532"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
       </cdr:spPr>
       <cdr:txBody>
         <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rIns="0" rtlCol="0"/>
@@ -7940,6 +9095,352 @@
             <a:solidFill>
               <a:schemeClr val="tx2"/>
             </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.44746</cdr:x>
+      <cdr:y>0.88391</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99614</cdr:x>
+      <cdr:y>0.91854</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="data!$Q$17">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="17" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A007E7-FD8C-D14C-B937-88B9032C3A37}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3352800" y="6623155"/>
+          <a:ext cx="4111248" cy="259468"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fld id="{262B3E68-FAAA-5340-844A-920C44AF6FED}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="7F8FA9"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>source: https://www.floridadisaster.org/news-media/news/</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.46301</cdr:x>
+      <cdr:y>0.9095</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99448</cdr:x>
+      <cdr:y>0.94412</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="data!$Q$18">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="18" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A73D558A-8A5C-ED41-9469-136B7A2D5BBD}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3469333" y="6814854"/>
+          <a:ext cx="3982337" cy="259468"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:fld id="{B344D276-1886-5141-A25D-97B1F093F0CF}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="7F8FA9"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>info: https://github.com/endymion/SARS-CoV-2_Analysis</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.07288</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.11081</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="data!$Q$20">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="19" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C6632D-BA5D-464C-89CC-B84F39711254}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="546100"/>
+          <a:ext cx="7493000" cy="284179"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:fld id="{382572AA-09A4-DD42-8226-189DA8D07898}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>updated April 07, 2020 evening</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </cdr:txBody>
@@ -7996,11 +9497,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.16679</cdr:x>
-      <cdr:y>0.10652</cdr:y>
+      <cdr:y>0.13364</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.87682</cdr:x>
-      <cdr:y>0.21405</cdr:y>
+      <cdr:x>0.81525</cdr:x>
+      <cdr:y>0.24117</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -8015,8 +9516,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1258456" y="815882"/>
-          <a:ext cx="5357090" cy="823573"/>
+          <a:off x="1249791" y="1001372"/>
+          <a:ext cx="4858910" cy="805696"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -8062,7 +9563,7 @@
               </a:solidFill>
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t> been infected with SARS-CoV-2 is currently around one in 40.</a:t>
+            <a:t> been infected with SARS-CoV-2 is currently around one in 37.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600">
             <a:solidFill>
@@ -8076,401 +9577,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.31695</cdr:x>
-      <cdr:y>0.5771</cdr:y>
+      <cdr:x>0.82881</cdr:x>
+      <cdr:y>0.83057</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.98645</cdr:x>
-      <cdr:y>0.65506</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="8" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B34CA446-DF80-7946-BE9F-514FB56B1E5F}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2374900" y="4324229"/>
-          <a:ext cx="5016564" cy="584155"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>source: https://www.floridadisaster.org/news-media/news/</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>info: https://github.com/endymion/SARS-CoV-2_Analysis</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>updated: April 7 evening</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:br>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.90653</cdr:x>
-      <cdr:y>0.55188</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.93685</cdr:x>
-      <cdr:y>0.5822</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="9" name="Picture 8">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0637572-9380-D244-AE64-23F105707EBD}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6792608" y="4135245"/>
-          <a:ext cx="227216" cy="227214"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.93885</cdr:x>
-      <cdr:y>0.54915</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.97545</cdr:x>
-      <cdr:y>0.58575</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="10" name="Picture 9">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C9F470-464D-EE43-8CCA-E4B6495286FA}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7034820" y="4114800"/>
-          <a:ext cx="274213" cy="274212"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.63341</cdr:x>
-      <cdr:y>0.55124</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.89861</cdr:x>
-      <cdr:y>0.5863</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="11" name="TextBox 4">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD1FE79-F2E0-9D48-8D58-9D023878541E}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4746165" y="4130460"/>
-          <a:ext cx="1987128" cy="262655"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rIns="0" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>daily updates @BeachCov2</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.84407</cdr:x>
-      <cdr:y>0.83008</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.93559</cdr:x>
-      <cdr:y>0.8589</cdr:y>
+      <cdr:x>0.92034</cdr:x>
+      <cdr:y>0.85938</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -8485,8 +9597,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6324600" y="6219825"/>
-          <a:ext cx="685800" cy="215900"/>
+          <a:off x="6195160" y="6216516"/>
+          <a:ext cx="684128" cy="215660"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -8509,11 +9621,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.22494</cdr:x>
-      <cdr:y>0.25475</cdr:y>
+      <cdr:y>0.27678</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.89518</cdr:x>
-      <cdr:y>0.36027</cdr:y>
+      <cdr:y>0.3823</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -8528,8 +9640,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1697181" y="1951182"/>
-          <a:ext cx="5056910" cy="808182"/>
+          <a:off x="1685494" y="2073929"/>
+          <a:ext cx="5022088" cy="790639"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -8631,11 +9743,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.28156</cdr:x>
-      <cdr:y>0.41453</cdr:y>
+      <cdr:y>0.43148</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.8355</cdr:x>
-      <cdr:y>0.49292</cdr:y>
+      <cdr:y>0.50986</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -8650,8 +9762,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2124363" y="3175000"/>
-          <a:ext cx="4179455" cy="600364"/>
+          <a:off x="2109735" y="3233082"/>
+          <a:ext cx="4150675" cy="587332"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -8713,6 +9825,575 @@
             <a:solidFill>
               <a:schemeClr val="accent4"/>
             </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.9056</cdr:x>
+      <cdr:y>0.5552</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93618</cdr:x>
+      <cdr:y>0.5847</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="15" name="Picture 14">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A129B7A4-B127-7B46-AC99-96255996142F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6785672" y="4160091"/>
+          <a:ext cx="229141" cy="221052"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.9382</cdr:x>
+      <cdr:y>0.55254</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97511</cdr:x>
+      <cdr:y>0.58815</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="16" name="Picture 15">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5269D436-3F63-FF40-BF05-35C05CC9CD70}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7029936" y="4140200"/>
+          <a:ext cx="276537" cy="266776"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.63359</cdr:x>
+      <cdr:y>0.55458</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.90104</cdr:x>
+      <cdr:y>0.58868</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="17" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E91F91D-9425-D244-BC26-0DB78ECCD727}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4747501" y="4155436"/>
+          <a:ext cx="2003969" cy="255532"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rIns="0" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>daily updates @BeachCov2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.43559</cdr:x>
+      <cdr:y>0.58222</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98427</cdr:x>
+      <cdr:y>0.61685</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="data!$Q$17">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="18" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A007E7-FD8C-D14C-B937-88B9032C3A37}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3263900" y="4362555"/>
+          <a:ext cx="4111248" cy="259468"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fld id="{22587010-4BA3-884C-8550-746135CBD04A}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="7F8FA9"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>source: https://www.floridadisaster.org/news-media/news/</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.45115</cdr:x>
+      <cdr:y>0.6078</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98262</cdr:x>
+      <cdr:y>0.64243</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="data!$Q$18">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="19" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A73D558A-8A5C-ED41-9469-136B7A2D5BBD}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3380433" y="4554254"/>
+          <a:ext cx="3982337" cy="259468"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:fld id="{01A70AE6-EDAF-0D40-A403-6A7888222B14}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="7F8FA9"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>info: https://github.com/endymion/SARS-CoV-2_Analysis</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.07288</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.11081</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="data!$Q$20">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="20" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C6632D-BA5D-464C-89CC-B84F39711254}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="546100"/>
+          <a:ext cx="7493000" cy="284179"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:fld id="{62402138-15CE-1A4E-8CFC-73AD16D65460}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>updated April 07, 2020 evening</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </cdr:txBody>
@@ -8734,7 +10415,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>558800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8750,7 +10431,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="203200"/>
-          <a:ext cx="7454900" cy="393700"/>
+          <a:ext cx="6692900" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8797,7 +10478,18 @@
             <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t>SARS-CoV-2 Infection Estimates - Miami Beach</a:t>
+            <a:t>SARS-CoV-2 Infection Estimates</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Miami Beach</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800" b="1" i="0">
             <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
@@ -8810,15 +10502,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2227045</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133959</xdr:rowOff>
+      <xdr:colOff>2735045</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2454172</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>156422</xdr:rowOff>
+      <xdr:colOff>2962172</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>143722</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8847,8 +10539,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5974070" y="6253050"/>
-          <a:ext cx="227127" cy="221884"/>
+          <a:off x="6773645" y="7004659"/>
+          <a:ext cx="227127" cy="225663"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8860,15 +10552,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2478784</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>115679</xdr:rowOff>
+      <xdr:colOff>2986784</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>102979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>42907</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>186265</xdr:rowOff>
+      <xdr:colOff>17507</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>173565</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8897,8 +10589,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6225809" y="6234770"/>
-          <a:ext cx="282553" cy="270007"/>
+          <a:off x="7025384" y="6986379"/>
+          <a:ext cx="281923" cy="273786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8910,15 +10602,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>745572</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>79917</xdr:rowOff>
+      <xdr:colOff>1253572</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>67217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>172689</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>140108</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>464789</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127408</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8933,8 +10625,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4492597" y="5999586"/>
-          <a:ext cx="2145547" cy="259613"/>
+          <a:off x="5292172" y="6747417"/>
+          <a:ext cx="2678317" cy="263391"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9048,22 +10740,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>119717</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>115190</xdr:rowOff>
+      <xdr:colOff>118694</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>84773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>632335</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>295254</xdr:rowOff>
+      <xdr:colOff>927099</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>169677</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp macro="" textlink="data!$Q$17">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 1">
+        <xdr:cNvPr id="15" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC9EABF1-2A65-2242-B7B2-B2D698FC5C40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C8B30FB-00E3-7B48-8F36-F07534A801B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9071,8 +10763,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="119717" y="6049769"/>
-          <a:ext cx="4085235" cy="583616"/>
+          <a:off x="118694" y="5914073"/>
+          <a:ext cx="4389805" cy="288104"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9147,65 +10839,255 @@
         </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
+          <a:fld id="{F74A1016-1E0F-9547-886D-CB4207A20D01}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="7F8FA9"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>source: https://www.floridadisaster.org/news-media/news/</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>122544</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>97669</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1778000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>238353</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="data!$Q$18">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29562D62-8CB9-E848-BBD2-981BB4507AD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="122544" y="6130169"/>
+          <a:ext cx="5236856" cy="343884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:fld id="{85D2E9EB-F078-FA4B-AA0C-E2882BE1C2B7}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="7F8FA9"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>info: https://github.com/endymion/SARS-CoV-2_Analysis</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>550879</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B7F91F7-879E-D142-95EA-02D5ACD3B3D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="673100"/>
+          <a:ext cx="7493000" cy="284179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:latin typeface="Helvetica"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>source: https://www.floridadisaster.org/news-media/news/</a:t>
+            <a:t>updated April 07, 2020 evening</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>info: https://github.com/endymion/SARS-CoV-2_Analysis</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>updated: April 7 morning</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:br>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en-US" sz="1200">
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
@@ -9221,48 +11103,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3BE4AE7D-0714-C143-A688-292634C906F9}" name="Table2" displayName="Table2" ref="A1:O17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowCellStyle="Heading 3">
-  <autoFilter ref="A1:O17" xr:uid="{550F0C45-D7F8-B94B-924D-6E337BF889A7}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{5A8F4760-7ADB-5643-B32D-8C30EC7E1E18}" name="date" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{1A056131-5760-2749-834E-BF55DAB2649A}" name="cases" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{C899EFA6-17F8-B447-A1DB-6D7083A2F531}" name="infection count estimating 5x cases infected" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3BE4AE7D-0714-C143-A688-292634C906F9}" name="Table2" displayName="Table2" ref="A1:Q17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Heading 3">
+  <autoFilter ref="A1:Q17" xr:uid="{550F0C45-D7F8-B94B-924D-6E337BF889A7}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{5A8F4760-7ADB-5643-B32D-8C30EC7E1E18}" name="date" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{1A056131-5760-2749-834E-BF55DAB2649A}" name="cases" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{C899EFA6-17F8-B447-A1DB-6D7083A2F531}" name="infection count estimating 5x cases infected" dataDxfId="14">
       <calculatedColumnFormula>Table2[[#This Row],[cases]]*5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9DA1C9E0-36F7-DE43-8448-4D8CE8B57839}" name="infection count, estimating 7x cases infected" dataDxfId="11">
+    <tableColumn id="9" xr3:uid="{9DA1C9E0-36F7-DE43-8448-4D8CE8B57839}" name="infection count, estimating 7x cases infected" dataDxfId="13">
       <calculatedColumnFormula>Table2[[#This Row],[cases]]*7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{DF5E18EF-399D-9948-A8F2-9862C2232353}" name="infection count difference" dataDxfId="10">
+    <tableColumn id="11" xr3:uid="{DF5E18EF-399D-9948-A8F2-9862C2232353}" name="infection count difference" dataDxfId="12">
       <calculatedColumnFormula>Table2[[#This Row],[infection count, estimating 7x cases infected]]-Table2[[#This Row],[infection count estimating 5x cases infected]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{F5EF272D-BCCD-9A42-A437-406EF6A3644D}" name="average infection count" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{F5EF272D-BCCD-9A42-A437-406EF6A3644D}" name="average infection count" dataDxfId="11">
       <calculatedColumnFormula>(Table2[[#This Row],[infection count estimating 5x cases infected]]+Table2[[#This Row],[infection count, estimating 7x cases infected]])/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{8AB0CE19-F28B-1B41-B08C-6F528E4C628D}" name="infection percentage, estimating 5x cases infected" dataDxfId="8">
+    <tableColumn id="12" xr3:uid="{8AB0CE19-F28B-1B41-B08C-6F528E4C628D}" name="infection percentage, estimating 5x cases infected" dataDxfId="10">
       <calculatedColumnFormula>Table2[[#This Row],[infection count estimating 5x cases infected]]/$O$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1109EB50-6E0E-5D49-923A-162321C9390D}" name="infection percentage, estimating 7x cases infected" dataDxfId="7">
+    <tableColumn id="13" xr3:uid="{1109EB50-6E0E-5D49-923A-162321C9390D}" name="infection percentage, estimating 7x cases infected" dataDxfId="9">
       <calculatedColumnFormula>Table2[[#This Row],[infection count, estimating 7x cases infected]]/$O$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{238DA9D3-166B-A04A-B1CF-89D64E5C9BCE}" name="infection percentage difference" dataDxfId="6">
+    <tableColumn id="14" xr3:uid="{238DA9D3-166B-A04A-B1CF-89D64E5C9BCE}" name="infection percentage difference" dataDxfId="8">
       <calculatedColumnFormula>Table2[[#This Row],[infection percentage, estimating 7x cases infected]]-Table2[[#This Row],[infection percentage, estimating 5x cases infected]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{DE45558E-71C3-0C4E-A3A2-8B967C3E17AB}" name="average infection percentage" dataDxfId="5">
+    <tableColumn id="15" xr3:uid="{DE45558E-71C3-0C4E-A3A2-8B967C3E17AB}" name="average infection percentage" dataDxfId="7">
       <calculatedColumnFormula>(Table2[[#This Row],[infection percentage, estimating 5x cases infected]]+Table2[[#This Row],[infection percentage, estimating 7x cases infected]])/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{02005BA0-C3BB-F54B-908A-B7ECE76A73E8}" name="1-in-X odds, estimating 5x cases infected" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{02005BA0-C3BB-F54B-908A-B7ECE76A73E8}" name="1-in-X odds, estimating 5x cases infected" dataDxfId="6">
       <calculatedColumnFormula>$O$3/(Table2[[#This Row],[cases]]*5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{244EEAB7-EA2F-9142-A896-C40C6D4A9BE9}" name="1-in-X odds, estimating 7x cases infected" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{244EEAB7-EA2F-9142-A896-C40C6D4A9BE9}" name="1-in-X odds, estimating 7x cases infected" dataDxfId="5">
       <calculatedColumnFormula>$O$3/(Table2[[#This Row],[cases]]*7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8F986CA1-2145-0B4C-AAAE-6153D0E4F495}" name="1-in-X odds difference" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{8F986CA1-2145-0B4C-AAAE-6153D0E4F495}" name="1-in-X odds difference" dataDxfId="4">
       <calculatedColumnFormula>Table2[[#This Row],[1-in-X odds, estimating 5x cases infected]]-Table2[[#This Row],[1-in-X odds, estimating 7x cases infected]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A840ABA5-36ED-FF4A-9BD9-42132A34A0D4}" name="average 1-in-X odds" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{A840ABA5-36ED-FF4A-9BD9-42132A34A0D4}" name="average 1-in-X odds" dataDxfId="3">
       <calculatedColumnFormula>(Table2[[#This Row],[1-in-X odds, estimating 5x cases infected]]+Table2[[#This Row],[1-in-X odds, estimating 7x cases infected]])/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{3F9CC5ED-74BF-8D4B-A8C4-40AA15D26E71}" name="constants" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{3F9CC5ED-74BF-8D4B-A8C4-40AA15D26E71}" name="constants" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{B5DA71D5-91C3-F54E-9A79-5F7DD2472B6E}" name="computed" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{22EA3CBE-6B18-9845-9A5C-8FD79B240D43}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9568,12 +11452,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -9582,8 +11467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD26BEB-40E2-ED4B-A542-5EA1102CBE4A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9598,7 +11483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBF10BE-52FE-794B-890A-D6D4B91A185A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -9614,7 +11499,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9629,21 +11514,22 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.83203125" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" customWidth="1"/>
-    <col min="6" max="6" width="2.83203125" customWidth="1"/>
-    <col min="7" max="7" width="32.83203125" customWidth="1"/>
-    <col min="8" max="8" width="2.83203125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="1.83203125" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" customWidth="1"/>
+    <col min="4" max="4" width="1.83203125" customWidth="1"/>
+    <col min="5" max="5" width="3.83203125" customWidth="1"/>
+    <col min="6" max="6" width="1.83203125" customWidth="1"/>
+    <col min="7" max="7" width="40.83203125" customWidth="1"/>
+    <col min="8" max="8" width="1.83203125" style="26" customWidth="1"/>
     <col min="9" max="9" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9655,8 +11541,8 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
@@ -9666,10 +11552,10 @@
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -9677,78 +11563,78 @@
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="18"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="24"/>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="18"/>
       <c r="F5" s="19"/>
       <c r="G5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="24"/>
     </row>
-    <row r="6" spans="1:12" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="30">
-        <f ca="1">OFFSET(data!B1,COUNTA(data!B:B)-1,0)</f>
+      <c r="B6" s="27"/>
+      <c r="C6" s="45">
+        <f ca="1">Table2[[#This Row],[computed]]</f>
         <v>426</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="21">
-        <f ca="1">OFFSET(data!F1,COUNTA(data!F:F)-1,0)</f>
+      <c r="G6" s="41">
+        <f ca="1">data!P9</f>
         <v>2556</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="28"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="18"/>
       <c r="F7" s="19"/>
       <c r="G7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="18"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
@@ -9758,116 +11644,116 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="C11" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="19"/>
       <c r="E11" s="18"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="25"/>
+      <c r="G11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="18"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="25"/>
+        <v>20</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="C13" s="22">
+        <f ca="1">data!P12</f>
+        <v>2.7690207676557575E-2</v>
+      </c>
       <c r="D13" s="19"/>
       <c r="E13" s="18"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="25"/>
+      <c r="G13" s="21">
+        <f ca="1">data!P15</f>
+        <v>37.145674044265597</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="1:12" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="23">
-        <f ca="1">OFFSET(data!J1,COUNTA(data!J:J)-1,0)</f>
-        <v>2.7690207676557575E-2</v>
+      <c r="C14" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="18"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="22">
-        <f ca="1">OFFSET(data!N1,COUNTA(data!N:N)-1,0)</f>
-        <v>37.145674044265597</v>
-      </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="25"/>
+      <c r="G14" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="24" t="s">
-        <v>21</v>
+      <c r="C15" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="18"/>
       <c r="F15" s="19"/>
-      <c r="G15" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="25"/>
+      <c r="G15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="24"/>
     </row>
-    <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="19"/>
-      <c r="C16" s="20" t="s">
-        <v>17</v>
-      </c>
+      <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="18"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="25"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="25"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
@@ -9877,10 +11763,10 @@
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -9888,19 +11774,8 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9911,10 +11786,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1E0E18-E130-924E-B8A9-7F036230CE4B}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9927,16 +11802,16 @@
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="8" width="15.83203125" style="17" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="33" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="15.33203125" customWidth="1"/>
     <col min="13" max="13" width="11.5" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.1640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="18.1640625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="87.83203125" customWidth="1"/>
+    <col min="15" max="16" width="18.1640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="87.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -9964,7 +11839,7 @@
       <c r="I1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="30" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="7" t="s">
@@ -9982,8 +11857,14 @@
       <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>43913</v>
       </c>
@@ -10018,7 +11899,7 @@
         <f>Table2[[#This Row],[infection percentage, estimating 7x cases infected]]-Table2[[#This Row],[infection percentage, estimating 5x cases infected]]</f>
         <v>7.1500536254021888E-4</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="31">
         <f>(Table2[[#This Row],[infection percentage, estimating 5x cases infected]]+Table2[[#This Row],[infection percentage, estimating 7x cases infected]])/2</f>
         <v>2.1450160876206573E-3</v>
       </c>
@@ -10041,8 +11922,12 @@
       <c r="O2" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="P2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>43914</v>
       </c>
@@ -10077,7 +11962,7 @@
         <f>Table2[[#This Row],[infection percentage, estimating 7x cases infected]]-Table2[[#This Row],[infection percentage, estimating 5x cases infected]]</f>
         <v>9.9667414172272982E-4</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="31">
         <f>(Table2[[#This Row],[infection percentage, estimating 5x cases infected]]+Table2[[#This Row],[infection percentage, estimating 7x cases infected]])/2</f>
         <v>2.990022425168189E-3</v>
       </c>
@@ -10100,8 +11985,13 @@
       <c r="O3" s="3">
         <v>92307</v>
       </c>
+      <c r="P3" s="34">
+        <f ca="1">OFFSET(data!A1,COUNTA(data!A:A)-1,0)</f>
+        <v>43928</v>
+      </c>
+      <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>43915</v>
       </c>
@@ -10136,7 +12026,7 @@
         <f>Table2[[#This Row],[infection percentage, estimating 7x cases infected]]-Table2[[#This Row],[infection percentage, estimating 5x cases infected]]</f>
         <v>1.3650102375767814E-3</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="31">
         <f>(Table2[[#This Row],[infection percentage, estimating 5x cases infected]]+Table2[[#This Row],[infection percentage, estimating 7x cases infected]])/2</f>
         <v>4.0950307127303456E-3</v>
       </c>
@@ -10157,8 +12047,10 @@
         <v>251.17551020408166</v>
       </c>
       <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>43916</v>
       </c>
@@ -10193,7 +12085,7 @@
         <f>Table2[[#This Row],[infection percentage, estimating 7x cases infected]]-Table2[[#This Row],[infection percentage, estimating 5x cases infected]]</f>
         <v>1.6466790167592926E-3</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="31">
         <f>(Table2[[#This Row],[infection percentage, estimating 5x cases infected]]+Table2[[#This Row],[infection percentage, estimating 7x cases infected]])/2</f>
         <v>4.9400370502778769E-3</v>
       </c>
@@ -10214,8 +12106,12 @@
         <v>208.21127819548872</v>
       </c>
       <c r="O5" s="3"/>
+      <c r="P5" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>43917</v>
       </c>
@@ -10250,7 +12146,7 @@
         <f>Table2[[#This Row],[infection percentage, estimating 7x cases infected]]-Table2[[#This Row],[infection percentage, estimating 5x cases infected]]</f>
         <v>1.9500146251096888E-3</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="31">
         <f>(Table2[[#This Row],[infection percentage, estimating 5x cases infected]]+Table2[[#This Row],[infection percentage, estimating 7x cases infected]])/2</f>
         <v>5.8500438753290654E-3</v>
       </c>
@@ -10271,8 +12167,13 @@
         <v>175.82285714285715</v>
       </c>
       <c r="O6" s="3"/>
+      <c r="P6" s="3">
+        <f ca="1">OFFSET(data!B1,COUNTA(data!B:B)-1,0)</f>
+        <v>426</v>
+      </c>
+      <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>43918</v>
       </c>
@@ -10307,7 +12208,7 @@
         <f>Table2[[#This Row],[infection percentage, estimating 7x cases infected]]-Table2[[#This Row],[infection percentage, estimating 5x cases infected]]</f>
         <v>2.5566858418104811E-3</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="31">
         <f>(Table2[[#This Row],[infection percentage, estimating 5x cases infected]]+Table2[[#This Row],[infection percentage, estimating 7x cases infected]])/2</f>
         <v>7.6700575254314406E-3</v>
       </c>
@@ -10328,8 +12229,10 @@
         <v>134.10217917675544</v>
       </c>
       <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>43919</v>
       </c>
@@ -10364,7 +12267,7 @@
         <f>Table2[[#This Row],[infection percentage, estimating 7x cases infected]]-Table2[[#This Row],[infection percentage, estimating 5x cases infected]]</f>
         <v>3.466692666861667E-3</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="31">
         <f>(Table2[[#This Row],[infection percentage, estimating 5x cases infected]]+Table2[[#This Row],[infection percentage, estimating 7x cases infected]])/2</f>
         <v>1.0400078000585004E-2</v>
       </c>
@@ -10385,8 +12288,12 @@
         <v>98.900357142857146</v>
       </c>
       <c r="O8" s="3"/>
+      <c r="P8" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>43920</v>
       </c>
@@ -10421,7 +12328,7 @@
         <f>Table2[[#This Row],[infection percentage, estimating 7x cases infected]]-Table2[[#This Row],[infection percentage, estimating 5x cases infected]]</f>
         <v>4.26836534607343E-3</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="31">
         <f>(Table2[[#This Row],[infection percentage, estimating 5x cases infected]]+Table2[[#This Row],[infection percentage, estimating 7x cases infected]])/2</f>
         <v>1.2805096038220286E-2</v>
       </c>
@@ -10442,8 +12349,13 @@
         <v>80.325163161711387</v>
       </c>
       <c r="O9" s="3"/>
+      <c r="P9" s="43">
+        <f ca="1">OFFSET(data!F1,COUNTA(data!F:F)-1,0)</f>
+        <v>2556</v>
+      </c>
+      <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>43921</v>
       </c>
@@ -10478,7 +12390,7 @@
         <f>Table2[[#This Row],[infection percentage, estimating 7x cases infected]]-Table2[[#This Row],[infection percentage, estimating 5x cases infected]]</f>
         <v>5.1567053419567313E-3</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="31">
         <f>(Table2[[#This Row],[infection percentage, estimating 5x cases infected]]+Table2[[#This Row],[infection percentage, estimating 7x cases infected]])/2</f>
         <v>1.5470116025870194E-2</v>
       </c>
@@ -10499,8 +12411,10 @@
         <v>66.487635054021609</v>
       </c>
       <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>43922</v>
       </c>
@@ -10535,7 +12449,7 @@
         <f>Table2[[#This Row],[infection percentage, estimating 7x cases infected]]-Table2[[#This Row],[infection percentage, estimating 5x cases infected]]</f>
         <v>5.7633765586575254E-3</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="31">
         <f>(Table2[[#This Row],[infection percentage, estimating 5x cases infected]]+Table2[[#This Row],[infection percentage, estimating 7x cases infected]])/2</f>
         <v>1.7290129675972571E-2</v>
       </c>
@@ -10556,8 +12470,12 @@
         <v>59.488936627282484</v>
       </c>
       <c r="O11" s="3"/>
+      <c r="P11" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>43923</v>
       </c>
@@ -10592,7 +12510,7 @@
         <f>Table2[[#This Row],[infection percentage, estimating 7x cases infected]]-Table2[[#This Row],[infection percentage, estimating 5x cases infected]]</f>
         <v>6.370047775358316E-3</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="31">
         <f>(Table2[[#This Row],[infection percentage, estimating 5x cases infected]]+Table2[[#This Row],[infection percentage, estimating 7x cases infected]])/2</f>
         <v>1.9110143326074944E-2</v>
       </c>
@@ -10613,8 +12531,13 @@
         <v>53.823323615160348</v>
       </c>
       <c r="O12" s="3"/>
+      <c r="P12" s="32">
+        <f ca="1">OFFSET(data!J1,COUNTA(data!J:J)-1,0)</f>
+        <v>2.7690207676557575E-2</v>
+      </c>
+      <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>43924</v>
       </c>
@@ -10649,7 +12572,7 @@
         <f>Table2[[#This Row],[infection percentage, estimating 7x cases infected]]-Table2[[#This Row],[infection percentage, estimating 5x cases infected]]</f>
         <v>6.716717042044483E-3</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="31">
         <f>(Table2[[#This Row],[infection percentage, estimating 5x cases infected]]+Table2[[#This Row],[infection percentage, estimating 7x cases infected]])/2</f>
         <v>2.0150151126133446E-2</v>
       </c>
@@ -10670,8 +12593,10 @@
         <v>51.045345622119818</v>
       </c>
       <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>43925</v>
       </c>
@@ -10706,7 +12631,7 @@
         <f>Table2[[#This Row],[infection percentage, estimating 7x cases infected]]-Table2[[#This Row],[infection percentage, estimating 5x cases infected]]</f>
         <v>7.5183897212562426E-3</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="31">
         <f>(Table2[[#This Row],[infection percentage, estimating 5x cases infected]]+Table2[[#This Row],[infection percentage, estimating 7x cases infected]])/2</f>
         <v>2.2555169163768728E-2</v>
       </c>
@@ -10727,8 +12652,12 @@
         <v>45.602470152326063</v>
       </c>
       <c r="O14" s="3"/>
+      <c r="P14" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>43926</v>
       </c>
@@ -10763,7 +12692,7 @@
         <f>Table2[[#This Row],[infection percentage, estimating 7x cases infected]]-Table2[[#This Row],[infection percentage, estimating 5x cases infected]]</f>
         <v>7.9083926462781805E-3</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="31">
         <f>(Table2[[#This Row],[infection percentage, estimating 5x cases infected]]+Table2[[#This Row],[infection percentage, estimating 7x cases infected]])/2</f>
         <v>2.3725177938834538E-2</v>
       </c>
@@ -10784,8 +12713,13 @@
         <v>43.353581213307237</v>
       </c>
       <c r="O15" s="3"/>
+      <c r="P15" s="3">
+        <f ca="1">OFFSET(data!N1,COUNTA(data!N:N)-1,0)</f>
+        <v>37.145674044265597</v>
+      </c>
+      <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>43927</v>
       </c>
@@ -10820,7 +12754,7 @@
         <f>Table2[[#This Row],[infection percentage, estimating 7x cases infected]]-Table2[[#This Row],[infection percentage, estimating 5x cases infected]]</f>
         <v>8.5800643504826274E-3</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="32">
         <f>(Table2[[#This Row],[infection percentage, estimating 5x cases infected]]+Table2[[#This Row],[infection percentage, estimating 7x cases infected]])/2</f>
         <v>2.5740193051447886E-2</v>
       </c>
@@ -10841,8 +12775,12 @@
         <v>39.959740259740258</v>
       </c>
       <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="37" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>43928</v>
       </c>
@@ -10877,7 +12815,7 @@
         <f>Table2[[#This Row],[infection percentage, estimating 7x cases infected]]-Table2[[#This Row],[infection percentage, estimating 5x cases infected]]</f>
         <v>9.2300692255191941E-3</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="32">
         <f>(Table2[[#This Row],[infection percentage, estimating 5x cases infected]]+Table2[[#This Row],[infection percentage, estimating 7x cases infected]])/2</f>
         <v>2.7690207676557575E-2</v>
       </c>
@@ -10898,6 +12836,56 @@
         <v>37.145674044265597</v>
       </c>
       <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q18" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q19" s="44" t="str">
+        <f ca="1">"updated " &amp; TEXT($P3,"MMMM dd, yyyy") &amp; " morning"</f>
+        <v>updated April 07, 2020 morning</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="44" t="str">
+        <f ca="1">"updated " &amp; TEXT($P3,"MMMM dd, yyyy") &amp; " evening"</f>
+        <v>updated April 07, 2020 evening</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="Q23" s="40" t="str">
+        <f ca="1">"There have been " &amp; P6 &amp; " confirmed cases of COVID-19 disease in Miami Beach since the start of the outbreak."</f>
+        <v>There have been 426 confirmed cases of COVID-19 disease in Miami Beach since the start of the outbreak.</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="Q25" s="42" t="str">
+        <f ca="1">"Around " &amp;TEXT(P9,"#,##0") &amp;" people in Miami Beach may have already been infected with the SARS-CoV-2 virus, based on a population count of " &amp; O3</f>
+        <v>Around 2,556 people in Miami Beach may have already been infected with the SARS-CoV-2 virus, based on a population count of 92307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="Q27" s="42" t="str">
+        <f ca="1">"Around " &amp; TEXT(P12,"0.0%") &amp; " of the total population of Miami Beach may have already been infected with the SARS-CoV-2 virus, based on a population count of " &amp; O3 &amp; "."</f>
+        <v>Around 2.8% of the total population of Miami Beach may have already been infected with the SARS-CoV-2 virus, based on a population count of 92307.</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="Q29" s="42" t="str">
+        <f ca="1">"The odds of any given person in Miami Beach having been infected with SARS-CoV-2 is currently around one in " &amp; TEXT(P15,"#,##0")  &amp; "."</f>
+        <v>The odds of any given person in Miami Beach having been infected with SARS-CoV-2 is currently around one in 37.</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
